--- a/uploads/_action_alarm_symptom.xlsx
+++ b/uploads/_action_alarm_symptom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
   <si>
     <t>code</t>
   </si>
@@ -33,60 +33,445 @@
     <t>line.id</t>
   </si>
   <si>
-    <t>machine.id</t>
-  </si>
-  <si>
-    <t>part.id</t>
-  </si>
-  <si>
     <t>line</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>machine</t>
-  </si>
-  <si>
     <t>5A</t>
   </si>
   <si>
     <t>2A</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>EL0A001</t>
-  </si>
-  <si>
-    <t>EL0A002</t>
-  </si>
-  <si>
-    <t>EL0A003</t>
-  </si>
-  <si>
-    <t>Keterangan alarm 1</t>
-  </si>
-  <si>
-    <t>Keterangan alarm 2</t>
-  </si>
-  <si>
-    <t>Keterangan alarm 3</t>
-  </si>
-  <si>
-    <t>Action 1 
-Action 2</t>
+    <t>Action 1</t>
+  </si>
+  <si>
+    <t>Sheet Feeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot </t>
+  </si>
+  <si>
+    <t>Press</t>
+  </si>
+  <si>
+    <t>Palletizer</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>RBT #SF</t>
+  </si>
+  <si>
+    <t>SHEET FEED</t>
+  </si>
+  <si>
+    <t>RBT #1</t>
+  </si>
+  <si>
+    <t>RBT #2</t>
+  </si>
+  <si>
+    <t>RBT #3</t>
+  </si>
+  <si>
+    <t>RBT #4</t>
+  </si>
+  <si>
+    <t>RBT #5</t>
+  </si>
+  <si>
+    <t>RBT #6L</t>
+  </si>
+  <si>
+    <t>RBT #6R</t>
+  </si>
+  <si>
+    <t>1P</t>
+  </si>
+  <si>
+    <t>2P</t>
+  </si>
+  <si>
+    <t>3P</t>
+  </si>
+  <si>
+    <t>4P</t>
+  </si>
+  <si>
+    <t>Manual Palletizer</t>
+  </si>
+  <si>
+    <t>equipment_group</t>
+  </si>
+  <si>
+    <t>equipment_group.id</t>
+  </si>
+  <si>
+    <t>equipment.id</t>
+  </si>
+  <si>
+    <t>CW5000.0</t>
+  </si>
+  <si>
+    <t>CW5000.1</t>
+  </si>
+  <si>
+    <t>CW5000.2</t>
+  </si>
+  <si>
+    <t>CW5000.3</t>
+  </si>
+  <si>
+    <t>CW5000.4</t>
+  </si>
+  <si>
+    <t>CW5000.5</t>
+  </si>
+  <si>
+    <t>CW5000.6</t>
+  </si>
+  <si>
+    <t>CW5000.7</t>
+  </si>
+  <si>
+    <t>CW5000.8</t>
+  </si>
+  <si>
+    <t>CW5000.9</t>
+  </si>
+  <si>
+    <t>CW5000.10</t>
+  </si>
+  <si>
+    <t>CW5000.11</t>
+  </si>
+  <si>
+    <t>CW5001.6</t>
+  </si>
+  <si>
+    <t>CW5002.11</t>
+  </si>
+  <si>
+    <t>CW5002.13</t>
+  </si>
+  <si>
+    <t>CW5003.13</t>
+  </si>
+  <si>
+    <t>CW5043.2</t>
+  </si>
+  <si>
+    <t>CW5043.12</t>
+  </si>
+  <si>
+    <t>CW5043.13</t>
+  </si>
+  <si>
+    <t>CW5061.15</t>
+  </si>
+  <si>
+    <t>CW5075.2</t>
+  </si>
+  <si>
+    <t>CW5075.12</t>
+  </si>
+  <si>
+    <t>CW5075.13</t>
+  </si>
+  <si>
+    <t>CW5107.2</t>
+  </si>
+  <si>
+    <t>CW5107.12</t>
+  </si>
+  <si>
+    <t>CW5107.13</t>
+  </si>
+  <si>
+    <t>CW5139.2</t>
+  </si>
+  <si>
+    <t>CW5139.12</t>
+  </si>
+  <si>
+    <t>CW5139.13</t>
+  </si>
+  <si>
+    <t>CW5161.0</t>
+  </si>
+  <si>
+    <t>CW5177.0</t>
+  </si>
+  <si>
+    <t>CW5193.0</t>
+  </si>
+  <si>
+    <t>CW5209.0</t>
+  </si>
+  <si>
+    <t>CW5225.0</t>
+  </si>
+  <si>
+    <t>CW5225.1</t>
+  </si>
+  <si>
+    <t>CW5225.2</t>
+  </si>
+  <si>
+    <t>CW5225.3</t>
+  </si>
+  <si>
+    <t>CW5225.4</t>
+  </si>
+  <si>
+    <t>CW5240.0</t>
+  </si>
+  <si>
+    <t>CW5240.1</t>
+  </si>
+  <si>
+    <t>CW5240.2</t>
+  </si>
+  <si>
+    <t>CW5240.3</t>
+  </si>
+  <si>
+    <t>CW5240.4</t>
+  </si>
+  <si>
+    <t>CW5240.5</t>
+  </si>
+  <si>
+    <t>CW5240.6</t>
+  </si>
+  <si>
+    <t>CW5240.7</t>
+  </si>
+  <si>
+    <t>CW5240.8</t>
+  </si>
+  <si>
+    <t>CW5240.9</t>
+  </si>
+  <si>
+    <t>CW5240.10</t>
+  </si>
+  <si>
+    <t>CW5240.11</t>
+  </si>
+  <si>
+    <t>CW5242.0</t>
+  </si>
+  <si>
+    <t>CW5242.1</t>
+  </si>
+  <si>
+    <t>CW5253.3</t>
+  </si>
+  <si>
+    <t>CW5253.8</t>
+  </si>
+  <si>
+    <t>CW5253.11</t>
+  </si>
+  <si>
+    <t>CW5253.14</t>
+  </si>
+  <si>
+    <t>CW5281.0</t>
+  </si>
+  <si>
+    <t>EL0A2B SF ROBOT EMERGENCY STOP READBACK FAULT</t>
+  </si>
+  <si>
+    <t>EL0A2D CENTERING ROBOT EMERGENCY STOP READBACK FAULT</t>
+  </si>
+  <si>
+    <t>EL0A3D EMERGENCY STOP READBACK FAULT (TO ACP)</t>
+  </si>
+  <si>
+    <t>1P EMERGENCY STOP RELAY FAULT                    EL0AB2</t>
+  </si>
+  <si>
+    <t>1P EMERGENCY STOP BUTTON (MOP)                   EL0ABC</t>
+  </si>
+  <si>
+    <t>1P EMERGENCY STOP BUTTON (MBP)                   EL0ABD</t>
+  </si>
+  <si>
+    <t>1P CUSHION EMERGENCY STOP (CHECK SERVO PANEL)    EL0BDF</t>
+  </si>
+  <si>
+    <t>2P EMERGENCY STOP RELAY FAULT                    EL0AB2</t>
+  </si>
+  <si>
+    <t>2P EMERGENCY STOP BUTTON (MOP)                   EL0ABC</t>
+  </si>
+  <si>
+    <t>2P EMERGENCY STOP BUTTON (MBP)                   EL0ABD</t>
+  </si>
+  <si>
+    <t>3P EMERGENCY STOP RELAY FAULT                    EL0AB2</t>
+  </si>
+  <si>
+    <t>3P EMERGENCY STOP BUTTON (MOP)                   EL0ABC</t>
+  </si>
+  <si>
+    <t>3P EMERGENCY STOP BUTTON (MBP)                   EL0ABD</t>
+  </si>
+  <si>
+    <t>4P EMERGENCY STOP RELAY FAULT                    EL0AB2</t>
+  </si>
+  <si>
+    <t>4P EMERGENCY STOP BUTTON (MOP)                   EL0ABC</t>
+  </si>
+  <si>
+    <t>4P EMERGENCY STOP BUTTON (MBP)                   EL0ABD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0110 1R EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0210 2R EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0310 3R EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0410 4R EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0510 5R EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0511 5R OPERATION PANEL EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0512 6R OPEN ST.EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0513 5R TEACH FENCE EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0514 5R SAFETY FENCE EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t>EL0A00 MP MAIN OPERATION PANEL EMERGENCY STOP</t>
+  </si>
+  <si>
+    <t>EL0A01 SAFETY FENCE EMERGENCY STOP</t>
+  </si>
+  <si>
+    <t>EL0A02 LEFT HDA SAFETY FENCE EMERGENCY STOP</t>
+  </si>
+  <si>
+    <t>EL0A03 RIGHT HDA SAFETY FENCE EMERGENCY STOP</t>
+  </si>
+  <si>
+    <t>EL0A04 LEFT CONVEYOR LEFT OPERATION PANEL EMERGENCY STOP</t>
+  </si>
+  <si>
+    <t>EL0A05 LEFT CONVEYOR RIGHT OPERATION PANEL EMERGENCY STOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0A06 RIGHT CONVEYOR LEFT OPERATION PANEL EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0A07 RIGHT CONVEYOR RIGHT OPERATION PANEL EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0A08 #6L ROBOT TEACH PENDANT EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0A09 #6R ROBOT TEACH PENDANT EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0A0A IDLE TABLE ROBOT TEACH PENDANT EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0A0B EQUIPMENT EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0A20 LOP EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0A21 HANDLING ROBOT PROCESS EMERGENCY STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0AD3 HANDLING ROBOT PROCESS EMERGENCY STOP RELAY FAULT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0AD8 #6L ROBOT EMERGENCY STOP RELAY FAULT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0ADB #6R ROBOT EMERGENCY STOP RELAY FAULT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL0ADE IDLE TABLE ROBOT EMERGENCY STOP RELAY FAULT </t>
+  </si>
+  <si>
+    <t>LOP EL0A90 EMERGENCY STOP BUTTON</t>
+  </si>
+  <si>
+    <t>MAIN OPERATION PANEL EMERGENCY STOP BUTTON</t>
+  </si>
+  <si>
+    <t>CENTERING ROBOT TEACH DOOR EMERGENCY STOP BUTTON</t>
+  </si>
+  <si>
+    <t>RIGHT DESTACK ST. ENTRANCE EMERGENCY STOP BUTTON</t>
+  </si>
+  <si>
+    <t>LEFT DESTACK ST. ENTRANCE EMERGENCY STOP BUTTON</t>
+  </si>
+  <si>
+    <t>SF ROBOT TP EMERGENCY STOP BUTON</t>
+  </si>
+  <si>
+    <t>CENTERING ROBOT EMERGENCY STOP BUTTON</t>
+  </si>
+  <si>
+    <t>SF UPSTREAM SAFETY FENCE EMERGENCY STOP BUTTON</t>
+  </si>
+  <si>
+    <t>SF ROBOT TEACH DOOR EMERGENCY STOP BUTTON</t>
+  </si>
+  <si>
+    <t>WASHER SAFETY FENCE EMERGENCY STOP BUTTON</t>
+  </si>
+  <si>
+    <t>RIGHT C/S OPERATION PANEL EMERGENCY STOP</t>
+  </si>
+  <si>
+    <t>LEFT C/S  OPERATION PANEL EMERGENCY STOP</t>
+  </si>
+  <si>
+    <t>SCRAP BASKET AREA EMERGENCY STOP</t>
+  </si>
+  <si>
+    <t>EMERGENCY STOP (FROM ACP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -98,7 +483,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,11 +491,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -121,11 +517,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -136,6 +572,2817 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="Group 23"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10429874" y="2971800"/>
+          <a:ext cx="6743701" cy="2352675"/>
+          <a:chOff x="2093506" y="2246055"/>
+          <a:chExt cx="6600913" cy="2145529"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="Picture 24" descr="img20191029_13012594.jpg">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect l="22527" t="9726" r="37898" b="2085"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="4321198" y="18363"/>
+            <a:ext cx="2145529" cy="6600913"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="26" name="Group 25"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2138498" y="2437898"/>
+            <a:ext cx="882855" cy="1522398"/>
+            <a:chOff x="5572125" y="2390775"/>
+            <a:chExt cx="1047749" cy="2076450"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="41" name="Picture 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect l="9245" t="10692" r="83202" b="59119"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5724524" y="2876551"/>
+              <a:ext cx="638175" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="Rectangle 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6296024" y="3324225"/>
+              <a:ext cx="323850" cy="447675"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="Rectangle 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6057899" y="3314700"/>
+              <a:ext cx="200024" cy="447675"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="Rectangle 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5676898" y="4019550"/>
+              <a:ext cx="238125" cy="447675"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="Rectangle 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5695948" y="2390775"/>
+              <a:ext cx="238125" cy="447675"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="46" name="Straight Connector 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="5572125" y="2982119"/>
+              <a:ext cx="794" cy="1056481"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="28575"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Rounded Rectangle 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2123996" y="2554262"/>
+            <a:ext cx="718749" cy="200622"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RBT #SF</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3000970" y="2683583"/>
+            <a:ext cx="603504" cy="200622"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RBT #1 </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="Rounded Rectangle 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3825980" y="2683583"/>
+            <a:ext cx="603504" cy="200622"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RBT #2 </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="Rounded Rectangle 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4759680" y="2683583"/>
+            <a:ext cx="603504" cy="200622"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RBT #3 </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Rounded Rectangle 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5693380" y="2683583"/>
+            <a:ext cx="603504" cy="200622"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RBT #4</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Rounded Rectangle 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6643042" y="2714063"/>
+            <a:ext cx="603504" cy="200622"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RBT #5 </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="Rounded Rectangle 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7469314" y="2962949"/>
+            <a:ext cx="717129" cy="200622"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RBT #6L </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="Rounded Rectangle 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="8025634" y="3133787"/>
+            <a:ext cx="880308" cy="355644"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Manual Palletizer</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7469313" y="3630704"/>
+            <a:ext cx="722376" cy="200622"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RBT #6R </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Rounded Rectangle 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2496368" y="3834834"/>
+            <a:ext cx="959680" cy="200622"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SHEET FEED</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="Rounded Rectangle 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3461441" y="3262915"/>
+            <a:ext cx="407698" cy="200622"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1P</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4383823" y="3262915"/>
+            <a:ext cx="407698" cy="200622"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2P</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="Rounded Rectangle 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5327701" y="3262915"/>
+            <a:ext cx="407698" cy="200622"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3P</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Rounded Rectangle 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6261401" y="3262915"/>
+            <a:ext cx="407698" cy="200622"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="6493D2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>4P</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="H6:I10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="H6:I10"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="equipment_group" dataDxfId="9"/>
+    <tableColumn id="2" name="id" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="H1:I4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="H1:I4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="line" dataDxfId="5"/>
+    <tableColumn id="2" name="id" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="K1:L15" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="K1:L15"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="equipment" dataDxfId="1"/>
+    <tableColumn id="2" name="id" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,24 +3672,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -456,79 +3708,647 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1"/>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="1">
         <v>9</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="1">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="1">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>7</v>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/uploads/_action_alarm_symptom.xlsx
+++ b/uploads/_action_alarm_symptom.xlsx
@@ -3674,8 +3674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
